--- a/downloaded_files/CMPS301_Lecture-35530.xlsx
+++ b/downloaded_files/CMPS301_Lecture-35530.xlsx
@@ -186,6 +186,15 @@
     <x:t>Omar Gamal Sani Ellethy</x:t>
   </x:si>
   <x:si>
+    <x:t>1161335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر عصام الدين عبدالرؤوف محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Essam El Din Abdel Raouf</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220135</x:t>
   </x:si>
   <x:si>
@@ -193,15 +202,6 @@
   </x:si>
   <x:si>
     <x:t>Omar walid saber mohamed homos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فراس اشرف محمد عبدالرحيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fras Ashraf Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210158</x:t>
@@ -753,7 +753,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="35.280625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="57.050625000000004" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1378,7 +1378,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6653213773</x:v>
+        <x:v>45927.5743428241</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1410,7 +1410,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6657920949</x:v>
+        <x:v>45906.6653213773</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>

--- a/downloaded_files/CMPS301_Lecture-35530.xlsx
+++ b/downloaded_files/CMPS301_Lecture-35530.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -238,15 +238,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> Mohamed ElSayed Shaaban ElSayed Abdelaziz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد رضا محمد عثمان دسوقى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Reda Mohamed Osman</x:t>
   </x:si>
   <x:si>
     <x:t>1220195</x:t>
@@ -443,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1570,7 +1561,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4151855671</x:v>
+        <x:v>45907.4147183218</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1602,7 +1593,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4147183218</x:v>
+        <x:v>45909.4674812153</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1634,7 +1625,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4674812153</x:v>
+        <x:v>45907.4143820949</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1666,7 +1657,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4143820949</x:v>
+        <x:v>45909.4149804398</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1698,7 +1689,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.4149804398</x:v>
+        <x:v>45906.6650957523</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1721,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6650957523</x:v>
+        <x:v>45906.6650695255</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1753,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6650695255</x:v>
+        <x:v>45906.6647167014</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1785,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6647167014</x:v>
+        <x:v>45906.6647606134</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1817,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6647606134</x:v>
+        <x:v>45906.6660025116</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1843,38 +1834,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45906.6660025116</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS301_Lecture-35530.xlsx
+++ b/downloaded_files/CMPS301_Lecture-35530.xlsx
@@ -228,7 +228,7 @@
     <x:t>محمد احمد محمود احمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed Mahmoud Alatar</x:t>
+    <x:t>Mohammed Ahmed Mahmoud Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1210025</x:t>
@@ -282,7 +282,7 @@
     <x:t>نور محمد السيد عبدالله خليل طنطاوي</x:t>
   </x:si>
   <x:si>
-    <x:t>NOOR MOHAMED ELSAYED ABDALLAH KHALIL TANTAWY</x:t>
+    <x:t>Noor Mohamed Elsayed Abdallah Khalil Tantawy</x:t>
   </x:si>
   <x:si>
     <x:t>1220291</x:t>
